--- a/results/mp/tinybert/corona/confidence/126/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,106 +43,127 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -500,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -619,37 +640,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C4">
+        <v>186</v>
+      </c>
+      <c r="D4">
+        <v>186</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>106</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7272727272727273</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -687,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3862660944206008</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,219 +758,123 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>0.8046875</v>
+      </c>
+      <c r="L9">
+        <v>103</v>
+      </c>
+      <c r="M9">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>35</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="K10">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L10">
         <v>64</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>69</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>121</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
       <c r="M10">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,21 +886,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,21 +912,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1013,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1039,21 +964,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.717948717948718</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1065,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1091,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6724137931034483</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1117,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1143,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1169,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6060606060606061</v>
+        <v>0.62</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1195,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1221,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1247,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1273,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.568075117370892</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L23">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1299,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1325,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4861111111111111</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1351,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1377,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4651162790697674</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1403,33 +1328,319 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3640167364016736</v>
+      </c>
+      <c r="L29">
+        <v>87</v>
+      </c>
+      <c r="M29">
+        <v>87</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K28">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="L28">
+      <c r="K32">
+        <v>0.01757689893283114</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>0.97</v>
+      </c>
+      <c r="O32">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.01638672675133142</v>
+      </c>
+      <c r="L33">
         <v>40</v>
       </c>
-      <c r="M28">
-        <v>40</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>52</v>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>0.91</v>
+      </c>
+      <c r="O33">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.01609883938599775</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
+        <v>0.96</v>
+      </c>
+      <c r="O34">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.01448598130841122</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>0.91</v>
+      </c>
+      <c r="O35">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>0.01141598237532546</v>
+      </c>
+      <c r="L36">
+        <v>57</v>
+      </c>
+      <c r="M36">
+        <v>60</v>
+      </c>
+      <c r="N36">
+        <v>0.95</v>
+      </c>
+      <c r="O36">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>0.01031592520954223</v>
+      </c>
+      <c r="L37">
+        <v>32</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>0.86</v>
+      </c>
+      <c r="O37">
+        <v>0.14</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.00855095909406055</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>38</v>
+      </c>
+      <c r="N38">
+        <v>0.97</v>
+      </c>
+      <c r="O38">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>0.0065865943432778</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>0.92</v>
+      </c>
+      <c r="O39">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>5128</v>
       </c>
     </row>
   </sheetData>
